--- a/solar_panel_power2.xlsx
+++ b/solar_panel_power2.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3279,6 +3279,38 @@
         <v>0.8448</v>
       </c>
     </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>0.8446713328681194</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>0.8442853706657321</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>0.8436422309606639</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>0.8427421096594996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
